--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
@@ -597,19 +597,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1839449541284232</v>
+        <v>-0.2911504424778736</v>
       </c>
       <c r="C2">
-        <v>-1.303044651843698</v>
+        <v>-0.3789310420555657</v>
       </c>
       <c r="D2">
-        <v>0.7957634757526395</v>
+        <v>0.6601833660772567</v>
       </c>
       <c r="E2">
-        <v>0.8744122965642023</v>
+        <v>0.8977051155657878</v>
       </c>
       <c r="F2">
-        <v>2.507941123023818</v>
+        <v>1.942020046260614</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,25 +617,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1457634757526623</v>
+        <v>0.01018336607727949</v>
       </c>
       <c r="C3">
-        <v>0.7744122965641937</v>
+        <v>0.7977051155657793</v>
       </c>
       <c r="D3">
-        <v>2.467941123023811</v>
+        <v>1.902020046260607</v>
       </c>
       <c r="E3">
-        <v>4.12576201096553</v>
+        <v>5.023512137823029</v>
       </c>
       <c r="F3">
-        <v>-0.01752140864044649</v>
+        <v>0.03001526000702132</v>
       </c>
       <c r="G3">
-        <v>-0.4530390842034671</v>
+        <v>-0.3220498712245379</v>
       </c>
       <c r="H3">
-        <v>0.2404915850527668</v>
+        <v>-0.5297044105667258</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,19 +643,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.20794112302382</v>
+        <v>0.6420200462606165</v>
       </c>
       <c r="C4">
-        <v>3.150762010965521</v>
+        <v>4.04851213782302</v>
       </c>
       <c r="D4">
-        <v>-0.7175214086404351</v>
+        <v>-0.6699847399929673</v>
       </c>
       <c r="E4">
-        <v>-1.028039084203484</v>
+        <v>-0.8970498712245549</v>
       </c>
       <c r="F4">
-        <v>-0.2595084149472189</v>
+        <v>-1.029704410566711</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,25 +663,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.017521408640446</v>
+        <v>-0.9699847399929786</v>
       </c>
       <c r="C5">
-        <v>-0.5280390842034699</v>
+        <v>-0.3970498712245408</v>
       </c>
       <c r="D5">
-        <v>-0.3095084149472304</v>
+        <v>-1.079704410566723</v>
       </c>
       <c r="E5">
-        <v>-0.4613515565679706</v>
+        <v>-1.015935334872996</v>
       </c>
       <c r="F5">
-        <v>-2.182091798344627</v>
+        <v>-2.178399449667514</v>
       </c>
       <c r="G5">
-        <v>-0.4480161645848688</v>
+        <v>-0.7149910233393171</v>
       </c>
       <c r="H5">
-        <v>-0.1147970816233392</v>
+        <v>-0.4057012669481986</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,19 +689,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.4904915850527526</v>
+        <v>-0.27970441056674</v>
       </c>
       <c r="C6">
-        <v>0.2586484434320426</v>
+        <v>-0.2959353348729827</v>
       </c>
       <c r="D6">
-        <v>-1.982091798344624</v>
+        <v>-1.978399449667511</v>
       </c>
       <c r="E6">
-        <v>-0.498016164584866</v>
+        <v>-0.7649910233393142</v>
       </c>
       <c r="F6">
-        <v>-0.06479708162335629</v>
+        <v>-0.3557012669482157</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,25 +709,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.082091798344633</v>
+        <v>-1.07839944966752</v>
       </c>
       <c r="C7">
-        <v>-0.198016164584883</v>
+        <v>-0.4649910233393313</v>
       </c>
       <c r="D7">
-        <v>-0.06479708162335629</v>
+        <v>-0.3557012669482157</v>
       </c>
       <c r="E7">
-        <v>-1.199182264219526</v>
+        <v>-1.510754112840914</v>
       </c>
       <c r="F7">
-        <v>0.2057776962582608</v>
+        <v>0.05387973104869598</v>
       </c>
       <c r="G7">
-        <v>-0.1530181086519004</v>
+        <v>-0.190774388924932</v>
       </c>
       <c r="H7">
-        <v>0.5818677821224053</v>
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,19 +735,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.4352029183766609</v>
+        <v>0.1442987330518014</v>
       </c>
       <c r="C8">
-        <v>-1.199182264219509</v>
+        <v>-1.510754112840897</v>
       </c>
       <c r="D8">
-        <v>0.280777696258258</v>
+        <v>0.1288797310486932</v>
       </c>
       <c r="E8">
-        <v>-0.00301810865190888</v>
+        <v>-0.04077438892494056</v>
       </c>
       <c r="F8">
-        <v>0.6818677821223996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,25 +755,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.280777696258258</v>
+        <v>0.1288797310486932</v>
       </c>
       <c r="C9">
-        <v>-0.00301810865190888</v>
+        <v>-0.04077438892494056</v>
       </c>
       <c r="D9">
-        <v>0.7818677821223996</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>0.08984239774072844</v>
+        <v>0.384853700516348</v>
       </c>
       <c r="F9">
-        <v>0.3292907417433573</v>
+        <v>0.5033920137397988</v>
       </c>
       <c r="G9">
-        <v>0.366018718502528</v>
+        <v>0.3855227882037503</v>
       </c>
       <c r="H9">
-        <v>1.192512792889843</v>
+        <v>0.9317281968967387</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,19 +781,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01813221787760042</v>
+        <v>-0.2</v>
       </c>
       <c r="C10">
-        <v>-0.4101576022592716</v>
+        <v>-0.1151462994836519</v>
       </c>
       <c r="D10">
-        <v>-0.0707092582566427</v>
+        <v>0.1033920137397988</v>
       </c>
       <c r="E10">
-        <v>0.066018718502528</v>
+        <v>0.08552278820375028</v>
       </c>
       <c r="F10">
-        <v>0.8925127928898435</v>
+        <v>0.6317281968967388</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.1707092582566427</v>
+        <v>0.003392013739798833</v>
       </c>
       <c r="C11">
-        <v>-0.133981281497472</v>
+        <v>-0.1144772117962497</v>
       </c>
       <c r="D11">
-        <v>0.8925127928898435</v>
+        <v>0.6317281968967388</v>
       </c>
       <c r="E11">
-        <v>0.3367145827682783</v>
+        <v>0.9582993343354048</v>
       </c>
       <c r="F11">
-        <v>-0.3214356569573426</v>
+        <v>-0.8092420643489421</v>
       </c>
       <c r="G11">
-        <v>0.1776792908944405</v>
+        <v>-0.001386814593555497</v>
       </c>
       <c r="H11">
-        <v>0.1162427487728631</v>
+        <v>0.3832395711707893</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,19 +827,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2925127928898435</v>
+        <v>0.03172819689673873</v>
       </c>
       <c r="C12">
-        <v>0.1367145827682783</v>
+        <v>0.7582993343354048</v>
       </c>
       <c r="D12">
-        <v>-0.4214356569573426</v>
+        <v>-0.9092420643489421</v>
       </c>
       <c r="E12">
-        <v>0.07767929089444053</v>
+        <v>-0.1013868145935555</v>
       </c>
       <c r="F12">
-        <v>0.1162427487728631</v>
+        <v>0.3832395711707893</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,25 +847,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1785643430426489</v>
+        <v>-0.3092420643489506</v>
       </c>
       <c r="C13">
-        <v>0.09767929089444222</v>
+        <v>-0.08138681459355379</v>
       </c>
       <c r="D13">
-        <v>0.0162427487728688</v>
+        <v>0.283239571170795</v>
       </c>
       <c r="E13">
-        <v>-0.4179231863442348</v>
+        <v>-0.6496183206106914</v>
       </c>
       <c r="F13">
-        <v>0.6108782057348251</v>
+        <v>0.4185237645577463</v>
       </c>
       <c r="G13">
-        <v>0.4337623012868961</v>
+        <v>-0.01395007342144794</v>
       </c>
       <c r="H13">
-        <v>-0.1996974281391924</v>
+        <v>-0.2408953354899527</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,19 +873,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0837572512271369</v>
+        <v>0.1832395711707893</v>
       </c>
       <c r="C14">
-        <v>-0.3179231863442404</v>
+        <v>-0.549618320610697</v>
       </c>
       <c r="D14">
-        <v>0.6608782057348365</v>
+        <v>0.4685237645577577</v>
       </c>
       <c r="E14">
-        <v>0.5337623012869103</v>
+        <v>0.08604992657856625</v>
       </c>
       <c r="F14">
-        <v>-0.09969742813917826</v>
+        <v>-0.1408953354899385</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,25 +893,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.4608782057348194</v>
+        <v>0.2685237645577406</v>
       </c>
       <c r="C15">
-        <v>0.333762301286916</v>
+        <v>-0.113950073421428</v>
       </c>
       <c r="D15">
-        <v>-0.2496974281391897</v>
+        <v>-0.2908953354899499</v>
       </c>
       <c r="E15">
-        <v>0.2476995305164363</v>
+        <v>0.7478848145846519</v>
       </c>
       <c r="F15">
-        <v>0.08136257582828943</v>
+        <v>-0.09254152823919604</v>
       </c>
       <c r="G15">
-        <v>0.2040735922691153</v>
+        <v>0.05565163553813546</v>
       </c>
       <c r="H15">
-        <v>0.2513073288242555</v>
+        <v>0.05779786359902134</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,19 +919,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.4996974281391754</v>
+        <v>-0.5408953354899357</v>
       </c>
       <c r="C16">
-        <v>0.1476995305164278</v>
+        <v>0.6478848145846434</v>
       </c>
       <c r="D16">
-        <v>-0.0186374241717191</v>
+        <v>-0.1925415282392046</v>
       </c>
       <c r="E16">
-        <v>0.1040735922691067</v>
+        <v>-0.04434836446187307</v>
       </c>
       <c r="F16">
-        <v>0.151307328824247</v>
+        <v>-0.04220213640098719</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -939,25 +939,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1813625758282837</v>
+        <v>0.00745847176079828</v>
       </c>
       <c r="C17">
-        <v>0.1040735922691067</v>
+        <v>-0.04434836446187307</v>
       </c>
       <c r="D17">
-        <v>0.131307328824251</v>
+        <v>-0.06220213640098321</v>
       </c>
       <c r="E17">
-        <v>-0.2653114026982006</v>
+        <v>-0.5712708312033505</v>
       </c>
       <c r="F17">
-        <v>-0.01125936757448054</v>
+        <v>0.07598217901985871</v>
       </c>
       <c r="G17">
-        <v>0.2088650222990921</v>
+        <v>0.0972143722244736</v>
       </c>
       <c r="H17">
-        <v>-0.0269234262875761</v>
+        <v>-0.002495471925940906</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -965,19 +965,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2013073288242442</v>
+        <v>0.007797863599010024</v>
       </c>
       <c r="C18">
-        <v>-0.216311402698194</v>
+        <v>-0.5222708312033439</v>
       </c>
       <c r="D18">
-        <v>0.03774063242552606</v>
+        <v>0.1249821790198653</v>
       </c>
       <c r="E18">
-        <v>0.2578650222990987</v>
+        <v>0.1462143722244802</v>
       </c>
       <c r="F18">
-        <v>0.02207657371243049</v>
+        <v>0.04650452807406569</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -985,25 +985,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.07125936757448281</v>
+        <v>0.01598217901985644</v>
       </c>
       <c r="C19">
-        <v>0.2488650222990841</v>
+        <v>0.1372143722244656</v>
       </c>
       <c r="D19">
-        <v>0.01307657371241594</v>
+        <v>0.03750452807405114</v>
       </c>
       <c r="E19">
-        <v>-0.1258961837583767</v>
+        <v>-0.7126237722990663</v>
       </c>
       <c r="F19">
-        <v>-0.1364567140176977</v>
+        <v>-0.3915460037634999</v>
       </c>
       <c r="G19">
-        <v>-0.3441758241758278</v>
+        <v>-0.2171035837015399</v>
       </c>
       <c r="H19">
-        <v>-0.126966924700923</v>
+        <v>-0.4755382215288753</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1011,19 +1011,19 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.02307657371240679</v>
+        <v>0.04750452807404199</v>
       </c>
       <c r="C20">
-        <v>-0.2058961837583608</v>
+        <v>-0.7926237722990503</v>
       </c>
       <c r="D20">
-        <v>-0.2164567140176819</v>
+        <v>-0.471546003763484</v>
       </c>
       <c r="E20">
-        <v>-0.4241758241758119</v>
+        <v>-0.297103583701524</v>
       </c>
       <c r="F20">
-        <v>-0.2069669247009072</v>
+        <v>-0.5555382215288595</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1031,25 +1031,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0835432859823011</v>
+        <v>-0.171546003763501</v>
       </c>
       <c r="C21">
-        <v>-0.2241758241758233</v>
+        <v>-0.09710358370153538</v>
       </c>
       <c r="D21">
-        <v>-0.1069669247009271</v>
+        <v>-0.4555382215288794</v>
       </c>
       <c r="E21">
-        <v>0.1527192445571372</v>
+        <v>0.9329051574270699</v>
       </c>
       <c r="F21">
-        <v>-0.00158488927486683</v>
+        <v>-0.2778726708074649</v>
       </c>
       <c r="G21">
-        <v>0.6488415319443164</v>
+        <v>1.172612968494063</v>
       </c>
       <c r="H21">
-        <v>0.4326764833261072</v>
+        <v>-0.1808229813664627</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1057,19 +1057,19 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05696692470090148</v>
+        <v>-0.4055382215288538</v>
       </c>
       <c r="C22">
-        <v>0.2027192445571344</v>
+        <v>0.9829051574270671</v>
       </c>
       <c r="D22">
-        <v>0.04841511072513038</v>
+        <v>-0.2278726708074676</v>
       </c>
       <c r="E22">
-        <v>0.6988415319443135</v>
+        <v>1.22261296849406</v>
       </c>
       <c r="F22">
-        <v>0.4826764833261045</v>
+        <v>-0.1308229813664655</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1077,28 +1077,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.4027192445571373</v>
+        <v>1.18290515742707</v>
       </c>
       <c r="C23">
-        <v>0.1634151107251537</v>
+        <v>-0.1128726708074443</v>
       </c>
       <c r="D23">
-        <v>0.7478415319443343</v>
+        <v>1.271612968494081</v>
       </c>
       <c r="E23">
-        <v>0.4826764833261045</v>
+        <v>-0.1308229813664655</v>
       </c>
       <c r="F23">
-        <v>0.1756473542911566</v>
+        <v>0.04064037033464729</v>
       </c>
       <c r="G23">
-        <v>0.5746895714685679</v>
+        <v>0.4328665963364129</v>
       </c>
       <c r="H23">
-        <v>0.4158406583130553</v>
+        <v>0.2316465401571632</v>
       </c>
       <c r="I23">
-        <v>0.4720044792832994</v>
+        <v>0.5382336073408444</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1106,25 +1106,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.1515848892748725</v>
+        <v>-0.4278726708074705</v>
       </c>
       <c r="C24">
-        <v>0.5988415319443334</v>
+        <v>1.12261296849408</v>
       </c>
       <c r="D24">
-        <v>0.3826764833261244</v>
+        <v>-0.2308229813664456</v>
       </c>
       <c r="E24">
-        <v>0.1246473542911689</v>
+        <v>-0.01035962966534043</v>
       </c>
       <c r="F24">
-        <v>0.5746895714685679</v>
+        <v>0.4328665963364129</v>
       </c>
       <c r="G24">
-        <v>0.3648406583130818</v>
+        <v>0.1806465401571897</v>
       </c>
       <c r="H24">
-        <v>0.4210044792833259</v>
+        <v>0.4872336073408708</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1132,34 +1132,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.6988415319442993</v>
+        <v>1.222612968494046</v>
       </c>
       <c r="C25">
-        <v>0.4826764833261045</v>
+        <v>-0.1308229813664655</v>
       </c>
       <c r="D25">
-        <v>0.1246473542911689</v>
+        <v>-0.01035962966534043</v>
       </c>
       <c r="E25">
-        <v>0.5746895714685679</v>
+        <v>0.4328665963364129</v>
       </c>
       <c r="F25">
-        <v>0.3648406583130818</v>
+        <v>0.1806465401571897</v>
       </c>
       <c r="G25">
-        <v>0.3220044792833222</v>
+        <v>0.3882336073408671</v>
       </c>
       <c r="H25">
-        <v>2.521807318894689</v>
+        <v>2.499273283610613</v>
       </c>
       <c r="I25">
-        <v>9.990957649751982</v>
+        <v>9.197145091904552</v>
       </c>
       <c r="J25">
-        <v>-8.180304150385487</v>
+        <v>-8.403584460184605</v>
       </c>
       <c r="K25">
-        <v>-0.04063260340633762</v>
+        <v>-0.835353934248207</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1167,31 +1167,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.1826764833261187</v>
+        <v>-0.4308229813664513</v>
       </c>
       <c r="C26">
-        <v>-0.02435264570883766</v>
+        <v>-0.159359629665347</v>
       </c>
       <c r="D26">
-        <v>0.4746895714685821</v>
+        <v>0.3328665963364272</v>
       </c>
       <c r="E26">
-        <v>0.2158406583130695</v>
+        <v>0.03164654015717738</v>
       </c>
       <c r="F26">
-        <v>0.2720044792833136</v>
+        <v>0.3382336073408586</v>
       </c>
       <c r="G26">
-        <v>2.521807318894706</v>
+        <v>2.49927328361063</v>
       </c>
       <c r="H26">
-        <v>9.990957649752</v>
+        <v>9.19714509190457</v>
       </c>
       <c r="I26">
-        <v>-8.180304150385469</v>
+        <v>-8.403584460184588</v>
       </c>
       <c r="J26">
-        <v>-0.04063260340632052</v>
+        <v>-0.8353539342481899</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1199,28 +1199,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.3243526457088434</v>
+        <v>-0.4593596296653527</v>
       </c>
       <c r="C27">
-        <v>0.374689571468565</v>
+        <v>0.23286659633641</v>
       </c>
       <c r="D27">
-        <v>0.2658406583130781</v>
+        <v>0.08164654015718592</v>
       </c>
       <c r="E27">
-        <v>0.3220044792833222</v>
+        <v>0.3882336073408671</v>
       </c>
       <c r="F27">
-        <v>2.571807318894714</v>
+        <v>2.549273283610638</v>
       </c>
       <c r="G27">
-        <v>10.04095764975201</v>
+        <v>9.247145091904578</v>
       </c>
       <c r="H27">
-        <v>-8.130304150385461</v>
+        <v>-8.35358446018458</v>
       </c>
       <c r="I27">
-        <v>0.009367396593688015</v>
+        <v>-0.7853539342481815</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1228,25 +1228,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.02531042853141789</v>
+        <v>-0.1671334036635728</v>
       </c>
       <c r="C28">
-        <v>0.2158406583130695</v>
+        <v>0.03164654015717738</v>
       </c>
       <c r="D28">
-        <v>0.2720044792833136</v>
+        <v>0.3382336073408586</v>
       </c>
       <c r="E28">
-        <v>2.521807318894706</v>
+        <v>2.49927328361063</v>
       </c>
       <c r="F28">
-        <v>9.990957649752</v>
+        <v>9.19714509190457</v>
       </c>
       <c r="G28">
-        <v>-8.180304150385469</v>
+        <v>-8.403584460184588</v>
       </c>
       <c r="H28">
-        <v>-0.04063260340632052</v>
+        <v>-0.8353539342481899</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1254,34 +1254,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.1841593416869248</v>
+        <v>-0.3683534598428169</v>
       </c>
       <c r="C29">
-        <v>0.07200447928330793</v>
+        <v>0.1382336073408529</v>
       </c>
       <c r="D29">
-        <v>2.471807318894706</v>
+        <v>2.44927328361063</v>
       </c>
       <c r="E29">
-        <v>10.039957649752</v>
+        <v>9.246145091904573</v>
       </c>
       <c r="F29">
-        <v>-8.131304150385466</v>
+        <v>-8.354584460184585</v>
       </c>
       <c r="G29">
-        <v>0.008367396593683296</v>
+        <v>-0.7863539342481862</v>
       </c>
       <c r="H29">
-        <v>2.155937868393076</v>
+        <v>1.46184654431863</v>
       </c>
       <c r="I29">
-        <v>-1.284092118130254</v>
+        <v>-2.197890424481732</v>
       </c>
       <c r="J29">
-        <v>-1.345266296544455</v>
+        <v>0.3104940315748919</v>
       </c>
       <c r="K29">
-        <v>0.6961896406117992</v>
+        <v>-0.2668583525789036</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1289,31 +1289,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.05200447928335454</v>
+        <v>0.1182336073408995</v>
       </c>
       <c r="C30">
-        <v>2.461807318894701</v>
+        <v>2.439273283610625</v>
       </c>
       <c r="D30">
-        <v>9.980957649751991</v>
+        <v>9.187145091904561</v>
       </c>
       <c r="E30">
-        <v>-8.150304150385457</v>
+        <v>-8.373584460184576</v>
       </c>
       <c r="F30">
-        <v>-0.0006326034063171004</v>
+        <v>-0.7953539342481866</v>
       </c>
       <c r="G30">
-        <v>2.206937868393077</v>
+        <v>1.512846544318632</v>
       </c>
       <c r="H30">
-        <v>-1.233092118130252</v>
+        <v>-2.14689042448173</v>
       </c>
       <c r="I30">
-        <v>-1.314266296544464</v>
+        <v>0.3414940315748836</v>
       </c>
       <c r="J30">
-        <v>0.6871896406117988</v>
+        <v>-0.275858352578904</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1321,28 +1321,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2.3218073188947</v>
+        <v>2.299273283610624</v>
       </c>
       <c r="C31">
-        <v>5.19095764975197</v>
+        <v>4.397145091904541</v>
       </c>
       <c r="D31">
-        <v>-6.480304150385512</v>
+        <v>-6.703584460184631</v>
       </c>
       <c r="E31">
-        <v>1.359367396593669</v>
+        <v>0.5646460657517991</v>
       </c>
       <c r="F31">
-        <v>3.306937868393058</v>
+        <v>2.612846544318612</v>
       </c>
       <c r="G31">
-        <v>-0.63309211813023</v>
+        <v>-1.546890424481708</v>
       </c>
       <c r="H31">
-        <v>-1.312092390567575</v>
+        <v>0.3436679375517726</v>
       </c>
       <c r="I31">
-        <v>0.6891273091171759</v>
+        <v>-0.2739206840735269</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1350,25 +1350,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-2.209042350248001</v>
+        <v>-3.002854908095431</v>
       </c>
       <c r="C32">
-        <v>-1.580304150385469</v>
+        <v>-1.803584460184588</v>
       </c>
       <c r="D32">
-        <v>3.459367396593679</v>
+        <v>2.66464606575181</v>
       </c>
       <c r="E32">
-        <v>4.006937868393072</v>
+        <v>3.312846544318626</v>
       </c>
       <c r="F32">
-        <v>-0.5330921181302579</v>
+        <v>-1.446890424481736</v>
       </c>
       <c r="G32">
-        <v>-1.194266296544459</v>
+        <v>0.4614940315748881</v>
       </c>
       <c r="H32">
-        <v>0.7471896406117955</v>
+        <v>-0.2158583525789074</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1376,34 +1376,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1.840304150385469</v>
+        <v>-2.063584460184588</v>
       </c>
       <c r="C33">
-        <v>2.411488683553286</v>
+        <v>1.616767352711417</v>
       </c>
       <c r="D33">
-        <v>3.163673203886142</v>
+        <v>2.469581879811696</v>
       </c>
       <c r="E33">
-        <v>-0.8080921181302552</v>
+        <v>-1.721890424481733</v>
       </c>
       <c r="F33">
-        <v>-1.194266296544473</v>
+        <v>0.4614940315748739</v>
       </c>
       <c r="G33">
-        <v>0.7396069183282994</v>
+        <v>-0.2234410748624034</v>
       </c>
       <c r="H33">
-        <v>0.153842895948372</v>
+        <v>0.2075339438621861</v>
       </c>
       <c r="I33">
-        <v>0.2501890872883032</v>
+        <v>0.409012021659737</v>
       </c>
       <c r="J33">
-        <v>-0.009555389810015302</v>
+        <v>-0.2014049694608026</v>
       </c>
       <c r="K33">
-        <v>0.8265776002125492</v>
+        <v>0.903848620538066</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1411,31 +1411,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.7406326034063262</v>
+        <v>-1.535353934248196</v>
       </c>
       <c r="C34">
-        <v>2.39538184572016</v>
+        <v>1.701290521645714</v>
       </c>
       <c r="D34">
-        <v>0.966907881869751</v>
+        <v>0.05310957551827311</v>
       </c>
       <c r="E34">
-        <v>-0.9882246039044738</v>
+        <v>0.6675357242148734</v>
       </c>
       <c r="F34">
-        <v>0.9469416447868544</v>
+        <v>-0.01610634840384839</v>
       </c>
       <c r="G34">
-        <v>0.2285275052539781</v>
+        <v>0.2822185531677922</v>
       </c>
       <c r="H34">
-        <v>0.2998780799059883</v>
+        <v>0.4587010142774222</v>
       </c>
       <c r="I34">
-        <v>0.03125855291726826</v>
+        <v>-0.160591026733519</v>
       </c>
       <c r="J34">
-        <v>0.8592436660644955</v>
+        <v>0.9365146863900123</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1443,28 +1443,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.097457868393073</v>
+        <v>0.4033665443186267</v>
       </c>
       <c r="C35">
-        <v>0.4233178818697558</v>
+        <v>-0.490480424481722</v>
       </c>
       <c r="D35">
-        <v>0.1547337034555309</v>
+        <v>1.810494031574878</v>
       </c>
       <c r="E35">
-        <v>1.203649640611794</v>
+        <v>0.240601647421091</v>
       </c>
       <c r="F35">
-        <v>0.2516151035781544</v>
+        <v>0.3053061514919685</v>
       </c>
       <c r="G35">
-        <v>0.3175001443875122</v>
+        <v>0.4763230787589461</v>
       </c>
       <c r="H35">
-        <v>0.03275110738878939</v>
+        <v>-0.1590984722619979</v>
       </c>
       <c r="I35">
-        <v>0.8612761035472807</v>
+        <v>0.9385471238727974</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1472,25 +1472,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.323092118130242</v>
+        <v>-1.23689042448172</v>
       </c>
       <c r="C36">
-        <v>1.865733703455543</v>
+        <v>3.52149403157489</v>
       </c>
       <c r="D36">
-        <v>1.847582543966432</v>
+        <v>0.8845345507757296</v>
       </c>
       <c r="E36">
-        <v>0.2513274344176</v>
+        <v>0.3050184823314142</v>
       </c>
       <c r="F36">
-        <v>0.3218253794872098</v>
+        <v>0.4806483138586436</v>
       </c>
       <c r="G36">
-        <v>0.03045435555422921</v>
+        <v>-0.161395224096558</v>
       </c>
       <c r="H36">
-        <v>0.8604183459774174</v>
+        <v>0.9376893663029342</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1498,34 +1498,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.174266296544449</v>
+        <v>1.481494031574898</v>
       </c>
       <c r="C37">
-        <v>1.647189640611778</v>
+        <v>0.6841416474210755</v>
       </c>
       <c r="D37">
-        <v>1.424595103578154</v>
+        <v>1.478286151491969</v>
       </c>
       <c r="E37">
-        <v>1.030270144387512</v>
+        <v>1.189093078758946</v>
       </c>
       <c r="F37">
-        <v>0.3098511073887893</v>
+        <v>0.1180015277380021</v>
       </c>
       <c r="G37">
-        <v>0.9253061035472806</v>
+        <v>1.002577123872797</v>
       </c>
       <c r="H37">
-        <v>0.5952267436446591</v>
+        <v>0.1168838851254733</v>
       </c>
       <c r="I37">
-        <v>0.2314402375649628</v>
+        <v>0.4024390243902407</v>
       </c>
       <c r="J37">
-        <v>0.3396176279974082</v>
+        <v>0.01916030534350868</v>
       </c>
       <c r="K37">
-        <v>0.4970636170015632</v>
+        <v>0.581428571428572</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1533,31 +1533,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.1928103593881966</v>
+        <v>-1.155858352578899</v>
       </c>
       <c r="C38">
-        <v>-0.2454048964218456</v>
+        <v>-0.1917138485080315</v>
       </c>
       <c r="D38">
-        <v>2.200270144387512</v>
+        <v>2.359093078758946</v>
       </c>
       <c r="E38">
-        <v>1.349851107388789</v>
+        <v>1.158001527738002</v>
       </c>
       <c r="F38">
-        <v>1.245306103547281</v>
+        <v>1.322577123872797</v>
       </c>
       <c r="G38">
-        <v>0.8652267436446591</v>
+        <v>0.3868838851254733</v>
       </c>
       <c r="H38">
-        <v>0.3014402375649629</v>
+        <v>0.4724390243902407</v>
       </c>
       <c r="I38">
-        <v>0.3896176279974082</v>
+        <v>0.0691603053435087</v>
       </c>
       <c r="J38">
-        <v>0.5470636170015633</v>
+        <v>0.631428571428572</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1565,28 +1565,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.2298806514884979</v>
+        <v>0.283571699402312</v>
       </c>
       <c r="C39">
-        <v>0.8526683129551109</v>
+        <v>1.011491247326545</v>
       </c>
       <c r="D39">
-        <v>0.6965152533949663</v>
+        <v>0.5046656737441791</v>
       </c>
       <c r="E39">
-        <v>1.545191941255428</v>
+        <v>1.622462961580944</v>
       </c>
       <c r="F39">
-        <v>1.225993306361975</v>
+        <v>0.7476504478427889</v>
       </c>
       <c r="G39">
-        <v>0.7182674109717584</v>
+        <v>0.8892661977970362</v>
       </c>
       <c r="H39">
-        <v>0.6131542380653776</v>
+        <v>0.2926969154114781</v>
       </c>
       <c r="I39">
-        <v>0.6331128777533094</v>
+        <v>0.7174778321803181</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1594,25 +1594,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.2402701443875122</v>
+        <v>0.3990930787589461</v>
       </c>
       <c r="C40">
-        <v>0.7703347161220313</v>
+        <v>0.5784851364712441</v>
       </c>
       <c r="D40">
-        <v>1.835306103547281</v>
+        <v>1.912577123872797</v>
       </c>
       <c r="E40">
-        <v>1.375226743644659</v>
+        <v>0.8968838851254733</v>
       </c>
       <c r="F40">
-        <v>0.821187593955504</v>
+        <v>0.9921863807807818</v>
       </c>
       <c r="G40">
-        <v>0.7472188330748641</v>
+        <v>0.4267615104209647</v>
       </c>
       <c r="H40">
-        <v>0.7070636170015632</v>
+        <v>0.791428571428572</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1620,28 +1620,28 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.3601488926112106</v>
+        <v>-0.5519984722619978</v>
       </c>
       <c r="C41">
-        <v>0.2553061035472806</v>
+        <v>0.3325771238727974</v>
       </c>
       <c r="D41">
-        <v>-0.06477325635534092</v>
+        <v>-0.5431161148745267</v>
       </c>
       <c r="E41">
-        <v>-0.01855976243503714</v>
+        <v>0.1524390243902407</v>
       </c>
       <c r="F41">
-        <v>0.6096176279974082</v>
+        <v>0.2891603053435087</v>
       </c>
       <c r="G41">
-        <v>0.7670636170015632</v>
+        <v>0.851428571428572</v>
       </c>
       <c r="H41">
-        <v>0.2964041604754924</v>
+        <v>0.2710171111748399</v>
       </c>
       <c r="I41">
-        <v>0.5467620410109615</v>
+        <v>0.775632271600231</v>
       </c>
       <c r="J41">
         <v>0.3347871831659499</v>
@@ -1655,25 +1655,25 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.1453061035472806</v>
+        <v>0.2225771238727974</v>
       </c>
       <c r="C42">
-        <v>-0.05477325635534092</v>
+        <v>-0.5331161148745267</v>
       </c>
       <c r="D42">
-        <v>0.05097186598095012</v>
+        <v>0.221970652806228</v>
       </c>
       <c r="E42">
-        <v>0.6813581175453611</v>
+        <v>0.3609007948914617</v>
       </c>
       <c r="F42">
-        <v>0.7891470860972862</v>
+        <v>0.873512040524295</v>
       </c>
       <c r="G42">
-        <v>0.2057013640468817</v>
+        <v>0.1803143147462292</v>
       </c>
       <c r="H42">
-        <v>0.4324787717588673</v>
+        <v>0.6613490023481368</v>
       </c>
       <c r="I42">
         <v>0.1941599749288416</v>
@@ -1687,22 +1687,22 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1273487862293673</v>
+        <v>-0.3509940722898185</v>
       </c>
       <c r="C43">
-        <v>0.04630450333973575</v>
+        <v>0.2173032901650136</v>
       </c>
       <c r="D43">
-        <v>0.5849623173407428</v>
+        <v>0.2645049946868433</v>
       </c>
       <c r="E43">
-        <v>0.8484374385026132</v>
+        <v>0.932802392929622</v>
       </c>
       <c r="F43">
-        <v>0.312800145126382</v>
+        <v>0.2874130958257295</v>
       </c>
       <c r="G43">
-        <v>0.4924727979357907</v>
+        <v>0.7213430285250602</v>
       </c>
       <c r="H43">
         <v>0.1829770333935032</v>
@@ -1716,19 +1716,19 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.1020880707435432</v>
+        <v>0.273086857568821</v>
       </c>
       <c r="C44">
-        <v>0.3096176279974082</v>
+        <v>-0.01083969465649132</v>
       </c>
       <c r="D44">
-        <v>0.7070636170015632</v>
+        <v>0.791428571428572</v>
       </c>
       <c r="E44">
-        <v>0.2864041604754924</v>
+        <v>0.2610171111748399</v>
       </c>
       <c r="F44">
-        <v>0.5267620410109616</v>
+        <v>0.7556322716002311</v>
       </c>
       <c r="G44">
         <v>0.2247871831659499</v>
@@ -1742,16 +1742,16 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.0503823720025918</v>
+        <v>-0.3708396946564913</v>
       </c>
       <c r="C45">
-        <v>0.6070636170015632</v>
+        <v>0.6914285714285719</v>
       </c>
       <c r="D45">
-        <v>0.2664041604754924</v>
+        <v>0.2410171111748399</v>
       </c>
       <c r="E45">
-        <v>0.6279097355159999</v>
+        <v>0.8567799661052694</v>
       </c>
       <c r="F45">
         <v>0.3979680775074187</v>
@@ -1768,13 +1768,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.3310636170015632</v>
+        <v>0.415428571428572</v>
       </c>
       <c r="C46">
-        <v>0.08037550528413179</v>
+        <v>0.05498845598347929</v>
       </c>
       <c r="D46">
-        <v>0.4669984892513961</v>
+        <v>0.6958687198406656</v>
       </c>
       <c r="E46">
         <v>0.3339617829755114</v>
@@ -1791,10 +1791,10 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.2961058799880114</v>
+        <v>-0.3214929292886639</v>
       </c>
       <c r="C47">
-        <v>0.2811199022592499</v>
+        <v>0.5099901328485194</v>
       </c>
       <c r="D47">
         <v>0.4061437322588163</v>
@@ -1811,7 +1811,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.3250145629684917</v>
+        <v>0.5538847935577611</v>
       </c>
       <c r="C48">
         <v>0.3247871831659499</v>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
@@ -597,19 +597,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.2911504424778736</v>
+        <v>-0.2909045670684483</v>
       </c>
       <c r="C2">
-        <v>-0.3789310420555657</v>
+        <v>-0.3567782656421442</v>
       </c>
       <c r="D2">
-        <v>0.6601833660772567</v>
+        <v>0.6601440576230303</v>
       </c>
       <c r="E2">
-        <v>0.8977051155657878</v>
+        <v>0.8976451259583875</v>
       </c>
       <c r="F2">
-        <v>1.942020046260614</v>
+        <v>1.95286343612335</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,25 +617,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.01018336607727949</v>
+        <v>0.01014405762305309</v>
       </c>
       <c r="C3">
-        <v>0.7977051155657793</v>
+        <v>0.797645125958379</v>
       </c>
       <c r="D3">
-        <v>1.902020046260607</v>
+        <v>1.912863436123343</v>
       </c>
       <c r="E3">
-        <v>5.023512137823029</v>
+        <v>5.01232520416154</v>
       </c>
       <c r="F3">
-        <v>0.03001526000702132</v>
+        <v>0.05352112676055359</v>
       </c>
       <c r="G3">
-        <v>-0.3220498712245379</v>
+        <v>-0.3455362369745888</v>
       </c>
       <c r="H3">
-        <v>-0.5297044105667258</v>
+        <v>-0.5179776588317392</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,19 +643,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.6420200462606165</v>
+        <v>0.6528634361233525</v>
       </c>
       <c r="C4">
-        <v>4.04851213782302</v>
+        <v>4.037325204161531</v>
       </c>
       <c r="D4">
-        <v>-0.6699847399929673</v>
+        <v>-0.646478873239435</v>
       </c>
       <c r="E4">
-        <v>-0.8970498712245549</v>
+        <v>-0.920536236974606</v>
       </c>
       <c r="F4">
-        <v>-1.029704410566711</v>
+        <v>-1.017977658831725</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,19 +663,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.9699847399929786</v>
+        <v>-0.9464788732394463</v>
       </c>
       <c r="C5">
-        <v>-0.3970498712245408</v>
+        <v>-0.4205362369745917</v>
       </c>
       <c r="D5">
-        <v>-1.079704410566723</v>
+        <v>-1.067977658831736</v>
       </c>
       <c r="E5">
-        <v>-1.015935334872996</v>
+        <v>-1.027482678983856</v>
       </c>
       <c r="F5">
-        <v>-2.178399449667514</v>
+        <v>-2.166685773243151</v>
       </c>
       <c r="G5">
         <v>-0.7149910233393171</v>
@@ -689,13 +689,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.27970441056674</v>
+        <v>-0.2679776588317534</v>
       </c>
       <c r="C6">
-        <v>-0.2959353348729827</v>
+        <v>-0.3074826789838432</v>
       </c>
       <c r="D6">
-        <v>-1.978399449667511</v>
+        <v>-1.966685773243148</v>
       </c>
       <c r="E6">
         <v>-0.7649910233393142</v>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.07839944966752</v>
+        <v>-1.066685773243157</v>
       </c>
       <c r="C7">
         <v>-0.4649910233393313</v>
@@ -727,7 +727,7 @@
         <v>-0.190774388924932</v>
       </c>
       <c r="H7">
-        <v>0.4000000000000057</v>
+        <v>0.4107573149741783</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +747,7 @@
         <v>-0.04077438892494056</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.5107573149741726</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,19 +761,19 @@
         <v>-0.04077438892494056</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.6107573149741726</v>
       </c>
       <c r="E9">
-        <v>0.384853700516348</v>
+        <v>0.3848305540613202</v>
       </c>
       <c r="F9">
-        <v>0.5033920137397988</v>
+        <v>0.4926462694578698</v>
       </c>
       <c r="G9">
-        <v>0.3855227882037503</v>
+        <v>0.3962466487935681</v>
       </c>
       <c r="H9">
-        <v>0.9317281968967387</v>
+        <v>0.8996575342465766</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,19 +781,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2</v>
+        <v>-0.1892426850258274</v>
       </c>
       <c r="C10">
-        <v>-0.1151462994836519</v>
+        <v>-0.1151694459386798</v>
       </c>
       <c r="D10">
-        <v>0.1033920137397988</v>
+        <v>0.09264626945786981</v>
       </c>
       <c r="E10">
-        <v>0.08552278820375028</v>
+        <v>0.09624664879356809</v>
       </c>
       <c r="F10">
-        <v>0.6317281968967388</v>
+        <v>0.5996575342465766</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.003392013739798833</v>
+        <v>-0.007353730542130191</v>
       </c>
       <c r="C11">
-        <v>-0.1144772117962497</v>
+        <v>-0.1037533512064319</v>
       </c>
       <c r="D11">
-        <v>0.6317281968967388</v>
+        <v>0.5996575342465766</v>
       </c>
       <c r="E11">
-        <v>0.9582993343354048</v>
+        <v>0.9581794761700257</v>
       </c>
       <c r="F11">
-        <v>-0.8092420643489421</v>
+        <v>-0.7658031088082881</v>
       </c>
       <c r="G11">
-        <v>-0.001386814593555497</v>
+        <v>-0.0121638924455868</v>
       </c>
       <c r="H11">
-        <v>0.3832395711707893</v>
+        <v>0.3513800424628444</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,19 +827,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.03172819689673873</v>
+        <v>-0.0003424657534233932</v>
       </c>
       <c r="C12">
-        <v>0.7582993343354048</v>
+        <v>0.7581794761700258</v>
       </c>
       <c r="D12">
-        <v>-0.9092420643489421</v>
+        <v>-0.865803108808288</v>
       </c>
       <c r="E12">
-        <v>-0.1013868145935555</v>
+        <v>-0.1121638924455868</v>
       </c>
       <c r="F12">
-        <v>0.3832395711707893</v>
+        <v>0.3513800424628444</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,25 +847,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.3092420643489506</v>
+        <v>-0.2658031088082966</v>
       </c>
       <c r="C13">
-        <v>-0.08138681459355379</v>
+        <v>-0.09216389244558509</v>
       </c>
       <c r="D13">
-        <v>0.283239571170795</v>
+        <v>0.2513800424628501</v>
       </c>
       <c r="E13">
-        <v>-0.6496183206106914</v>
+        <v>-0.6493958024167794</v>
       </c>
       <c r="F13">
-        <v>0.4185237645577463</v>
+        <v>0.4709797545368563</v>
       </c>
       <c r="G13">
-        <v>-0.01395007342144794</v>
+        <v>-0.05608015947960832</v>
       </c>
       <c r="H13">
-        <v>-0.2408953354899527</v>
+        <v>-0.2616861435726245</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,19 +873,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.1832395711707893</v>
+        <v>0.1513800424628444</v>
       </c>
       <c r="C14">
-        <v>-0.549618320610697</v>
+        <v>-0.5493958024167851</v>
       </c>
       <c r="D14">
-        <v>0.4685237645577577</v>
+        <v>0.5209797545368677</v>
       </c>
       <c r="E14">
-        <v>0.08604992657856625</v>
+        <v>0.04391984052040587</v>
       </c>
       <c r="F14">
-        <v>-0.1408953354899385</v>
+        <v>-0.1616861435726104</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,25 +893,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2685237645577406</v>
+        <v>0.3209797545368506</v>
       </c>
       <c r="C15">
-        <v>-0.113950073421428</v>
+        <v>-0.1560801594795884</v>
       </c>
       <c r="D15">
-        <v>-0.2908953354899499</v>
+        <v>-0.3116861435726218</v>
       </c>
       <c r="E15">
-        <v>0.7478848145846519</v>
+        <v>0.7374588381484971</v>
       </c>
       <c r="F15">
-        <v>-0.09254152823919604</v>
+        <v>0.001112494811135178</v>
       </c>
       <c r="G15">
-        <v>0.05565163553813546</v>
+        <v>-0.01685731984305816</v>
       </c>
       <c r="H15">
-        <v>0.05779786359902134</v>
+        <v>0.006547545697278667</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,19 +919,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.5408953354899357</v>
+        <v>-0.5616861435726075</v>
       </c>
       <c r="C16">
-        <v>0.6478848145846434</v>
+        <v>0.6374588381484886</v>
       </c>
       <c r="D16">
-        <v>-0.1925415282392046</v>
+        <v>-0.09888750518887335</v>
       </c>
       <c r="E16">
-        <v>-0.04434836446187307</v>
+        <v>-0.1168573198430667</v>
       </c>
       <c r="F16">
-        <v>-0.04220213640098719</v>
+        <v>-0.09345245430272986</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -939,25 +939,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.00745847176079828</v>
+        <v>0.1011124948111295</v>
       </c>
       <c r="C17">
-        <v>-0.04434836446187307</v>
+        <v>-0.1168573198430667</v>
       </c>
       <c r="D17">
-        <v>-0.06220213640098321</v>
+        <v>-0.1134524543027259</v>
       </c>
       <c r="E17">
-        <v>-0.5712708312033505</v>
+        <v>-0.4786268900694667</v>
       </c>
       <c r="F17">
-        <v>0.07598217901985871</v>
+        <v>0.1771926271014855</v>
       </c>
       <c r="G17">
-        <v>0.0972143722244736</v>
+        <v>0.04632174616006179</v>
       </c>
       <c r="H17">
-        <v>-0.002495471925940906</v>
+        <v>-0.0631960527640601</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -965,19 +965,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.007797863599010024</v>
+        <v>-0.04345245430273265</v>
       </c>
       <c r="C18">
-        <v>-0.5222708312033439</v>
+        <v>-0.4296268900694601</v>
       </c>
       <c r="D18">
-        <v>0.1249821790198653</v>
+        <v>0.2261926271014921</v>
       </c>
       <c r="E18">
-        <v>0.1462143722244802</v>
+        <v>0.09532174616006839</v>
       </c>
       <c r="F18">
-        <v>0.04650452807406569</v>
+        <v>-0.0141960527640535</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -985,25 +985,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.01598217901985644</v>
+        <v>0.1171926271014832</v>
       </c>
       <c r="C19">
-        <v>0.1372143722244656</v>
+        <v>0.08632174616005384</v>
       </c>
       <c r="D19">
-        <v>0.03750452807405114</v>
+        <v>-0.02319605276406805</v>
       </c>
       <c r="E19">
-        <v>-0.7126237722990663</v>
+        <v>-0.8129738398316293</v>
       </c>
       <c r="F19">
-        <v>-0.3915460037634999</v>
+        <v>-0.2324480506629815</v>
       </c>
       <c r="G19">
-        <v>-0.2171035837015399</v>
+        <v>-0.3158341520927615</v>
       </c>
       <c r="H19">
-        <v>-0.4755382215288753</v>
+        <v>-0.5337440296325202</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1011,19 +1011,19 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.04750452807404199</v>
+        <v>-0.0131960527640772</v>
       </c>
       <c r="C20">
-        <v>-0.7926237722990503</v>
+        <v>-0.8929738398316134</v>
       </c>
       <c r="D20">
-        <v>-0.471546003763484</v>
+        <v>-0.3124480506629657</v>
       </c>
       <c r="E20">
-        <v>-0.297103583701524</v>
+        <v>-0.3958341520927456</v>
       </c>
       <c r="F20">
-        <v>-0.5555382215288595</v>
+        <v>-0.6137440296325043</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1031,25 +1031,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.171546003763501</v>
+        <v>-0.01244805066298271</v>
       </c>
       <c r="C21">
-        <v>-0.09710358370153538</v>
+        <v>-0.195834152092757</v>
       </c>
       <c r="D21">
-        <v>-0.4555382215288794</v>
+        <v>-0.5137440296325242</v>
       </c>
       <c r="E21">
-        <v>0.9329051574270699</v>
+        <v>1.000033774003649</v>
       </c>
       <c r="F21">
-        <v>-0.2778726708074649</v>
+        <v>-0.3359499320784147</v>
       </c>
       <c r="G21">
-        <v>1.172612968494063</v>
+        <v>1.104664484451714</v>
       </c>
       <c r="H21">
-        <v>-0.1808229813664627</v>
+        <v>0.004220370190890887</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1057,19 +1057,19 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.4055382215288538</v>
+        <v>-0.4637440296324986</v>
       </c>
       <c r="C22">
-        <v>0.9829051574270671</v>
+        <v>1.050033774003646</v>
       </c>
       <c r="D22">
-        <v>-0.2278726708074676</v>
+        <v>-0.2859499320784175</v>
       </c>
       <c r="E22">
-        <v>1.22261296849406</v>
+        <v>1.154664484451711</v>
       </c>
       <c r="F22">
-        <v>-0.1308229813664655</v>
+        <v>0.0542203701908881</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1077,28 +1077,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1.18290515742707</v>
+        <v>1.250033774003649</v>
       </c>
       <c r="C23">
-        <v>-0.1128726708074443</v>
+        <v>-0.1709499320783942</v>
       </c>
       <c r="D23">
-        <v>1.271612968494081</v>
+        <v>1.203664484451731</v>
       </c>
       <c r="E23">
-        <v>-0.1308229813664655</v>
+        <v>0.0542203701908881</v>
       </c>
       <c r="F23">
-        <v>0.04064037033464729</v>
+        <v>-0.05605402797877324</v>
       </c>
       <c r="G23">
-        <v>0.4328665963364129</v>
+        <v>0.4424901754049486</v>
       </c>
       <c r="H23">
-        <v>0.2316465401571632</v>
+        <v>0.1168215346297342</v>
       </c>
       <c r="I23">
-        <v>0.5382336073408444</v>
+        <v>0.8340013360053379</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1106,25 +1106,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.4278726708074705</v>
+        <v>-0.4859499320784204</v>
       </c>
       <c r="C24">
-        <v>1.12261296849408</v>
+        <v>1.054664484451731</v>
       </c>
       <c r="D24">
-        <v>-0.2308229813664456</v>
+        <v>-0.045779629809092</v>
       </c>
       <c r="E24">
-        <v>-0.01035962966534043</v>
+        <v>-0.107054027978761</v>
       </c>
       <c r="F24">
-        <v>0.4328665963364129</v>
+        <v>0.4424901754049486</v>
       </c>
       <c r="G24">
-        <v>0.1806465401571897</v>
+        <v>0.0658215346297607</v>
       </c>
       <c r="H24">
-        <v>0.4872336073408708</v>
+        <v>0.7830013360053644</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1132,34 +1132,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.222612968494046</v>
+        <v>1.154664484451696</v>
       </c>
       <c r="C25">
-        <v>-0.1308229813664655</v>
+        <v>0.0542203701908881</v>
       </c>
       <c r="D25">
-        <v>-0.01035962966534043</v>
+        <v>-0.107054027978761</v>
       </c>
       <c r="E25">
-        <v>0.4328665963364129</v>
+        <v>0.4424901754049486</v>
       </c>
       <c r="F25">
-        <v>0.1806465401571897</v>
+        <v>0.0658215346297607</v>
       </c>
       <c r="G25">
-        <v>0.3882336073408671</v>
+        <v>0.6840013360053606</v>
       </c>
       <c r="H25">
-        <v>2.499273283610613</v>
+        <v>2.329873611643036</v>
       </c>
       <c r="I25">
-        <v>9.197145091904552</v>
+        <v>9.174120406567614</v>
       </c>
       <c r="J25">
-        <v>-8.403584460184605</v>
+        <v>-8.376533676533697</v>
       </c>
       <c r="K25">
-        <v>-0.835353934248207</v>
+        <v>-0.66713707687755</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1167,31 +1167,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.4308229813664513</v>
+        <v>-0.2457796298090977</v>
       </c>
       <c r="C26">
-        <v>-0.159359629665347</v>
+        <v>-0.2560540279787675</v>
       </c>
       <c r="D26">
-        <v>0.3328665963364272</v>
+        <v>0.3424901754049628</v>
       </c>
       <c r="E26">
-        <v>0.03164654015717738</v>
+        <v>-0.08317846537025159</v>
       </c>
       <c r="F26">
-        <v>0.3382336073408586</v>
+        <v>0.634001336005352</v>
       </c>
       <c r="G26">
-        <v>2.49927328361063</v>
+        <v>2.329873611643053</v>
       </c>
       <c r="H26">
-        <v>9.19714509190457</v>
+        <v>9.174120406567631</v>
       </c>
       <c r="I26">
-        <v>-8.403584460184588</v>
+        <v>-8.376533676533679</v>
       </c>
       <c r="J26">
-        <v>-0.8353539342481899</v>
+        <v>-0.6671370768775329</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1199,28 +1199,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.4593596296653527</v>
+        <v>-0.5560540279787732</v>
       </c>
       <c r="C27">
-        <v>0.23286659633641</v>
+        <v>0.2424901754049457</v>
       </c>
       <c r="D27">
-        <v>0.08164654015718592</v>
+        <v>-0.03317846537024305</v>
       </c>
       <c r="E27">
-        <v>0.3882336073408671</v>
+        <v>0.6840013360053606</v>
       </c>
       <c r="F27">
-        <v>2.549273283610638</v>
+        <v>2.379873611643061</v>
       </c>
       <c r="G27">
-        <v>9.247145091904578</v>
+        <v>9.224120406567639</v>
       </c>
       <c r="H27">
-        <v>-8.35358446018458</v>
+        <v>-8.326533676533671</v>
       </c>
       <c r="I27">
-        <v>-0.7853539342481815</v>
+        <v>-0.6171370768775243</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1228,25 +1228,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.1671334036635728</v>
+        <v>-0.1575098245950372</v>
       </c>
       <c r="C28">
-        <v>0.03164654015717738</v>
+        <v>-0.08317846537025159</v>
       </c>
       <c r="D28">
-        <v>0.3382336073408586</v>
+        <v>0.634001336005352</v>
       </c>
       <c r="E28">
-        <v>2.49927328361063</v>
+        <v>2.329873611643053</v>
       </c>
       <c r="F28">
-        <v>9.19714509190457</v>
+        <v>9.174120406567631</v>
       </c>
       <c r="G28">
-        <v>-8.403584460184588</v>
+        <v>-8.376533676533679</v>
       </c>
       <c r="H28">
-        <v>-0.8353539342481899</v>
+        <v>-0.6671370768775329</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1254,34 +1254,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.3683534598428169</v>
+        <v>-0.4831784653702459</v>
       </c>
       <c r="C29">
-        <v>0.1382336073408529</v>
+        <v>0.4340013360053464</v>
       </c>
       <c r="D29">
-        <v>2.44927328361063</v>
+        <v>2.279873611643053</v>
       </c>
       <c r="E29">
-        <v>9.246145091904573</v>
+        <v>9.223120406567634</v>
       </c>
       <c r="F29">
-        <v>-8.354584460184585</v>
+        <v>-8.327533676533676</v>
       </c>
       <c r="G29">
-        <v>-0.7863539342481862</v>
+        <v>-0.6181370768775289</v>
       </c>
       <c r="H29">
-        <v>1.46184654431863</v>
+        <v>0.9647755840093826</v>
       </c>
       <c r="I29">
-        <v>-2.197890424481732</v>
+        <v>-2.001511408339873</v>
       </c>
       <c r="J29">
-        <v>0.3104940315748919</v>
+        <v>0.2625197463245897</v>
       </c>
       <c r="K29">
-        <v>-0.2668583525789036</v>
+        <v>-0.1886344086021489</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1289,31 +1289,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1182336073408995</v>
+        <v>0.414001336005393</v>
       </c>
       <c r="C30">
-        <v>2.439273283610625</v>
+        <v>2.269873611643048</v>
       </c>
       <c r="D30">
-        <v>9.187145091904561</v>
+        <v>9.164120406567623</v>
       </c>
       <c r="E30">
-        <v>-8.373584460184576</v>
+        <v>-8.346533676533667</v>
       </c>
       <c r="F30">
-        <v>-0.7953539342481866</v>
+        <v>-0.6271370768775294</v>
       </c>
       <c r="G30">
-        <v>1.512846544318632</v>
+        <v>1.015775584009385</v>
       </c>
       <c r="H30">
-        <v>-2.14689042448173</v>
+        <v>-1.950511408339871</v>
       </c>
       <c r="I30">
-        <v>0.3414940315748836</v>
+        <v>0.2935197463245814</v>
       </c>
       <c r="J30">
-        <v>-0.275858352578904</v>
+        <v>-0.1976344086021493</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1321,28 +1321,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2.299273283610624</v>
+        <v>2.129873611643047</v>
       </c>
       <c r="C31">
-        <v>4.397145091904541</v>
+        <v>4.374120406567602</v>
       </c>
       <c r="D31">
-        <v>-6.703584460184631</v>
+        <v>-6.676533676533722</v>
       </c>
       <c r="E31">
-        <v>0.5646460657517991</v>
+        <v>0.7328629231224563</v>
       </c>
       <c r="F31">
-        <v>2.612846544318612</v>
+        <v>2.115775584009365</v>
       </c>
       <c r="G31">
-        <v>-1.546890424481708</v>
+        <v>-1.350511408339849</v>
       </c>
       <c r="H31">
-        <v>0.3436679375517726</v>
+        <v>0.2956936523014704</v>
       </c>
       <c r="I31">
-        <v>-0.2739206840735269</v>
+        <v>-0.1956967400967722</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1350,25 +1350,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-3.002854908095431</v>
+        <v>-3.02587959343237</v>
       </c>
       <c r="C32">
-        <v>-1.803584460184588</v>
+        <v>-1.776533676533679</v>
       </c>
       <c r="D32">
-        <v>2.66464606575181</v>
+        <v>2.832862923122467</v>
       </c>
       <c r="E32">
-        <v>3.312846544318626</v>
+        <v>2.815775584009379</v>
       </c>
       <c r="F32">
-        <v>-1.446890424481736</v>
+        <v>-1.250511408339877</v>
       </c>
       <c r="G32">
-        <v>0.4614940315748881</v>
+        <v>0.4135197463245859</v>
       </c>
       <c r="H32">
-        <v>-0.2158583525789074</v>
+        <v>-0.1376344086021527</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1376,34 +1376,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-2.063584460184588</v>
+        <v>-2.036533676533679</v>
       </c>
       <c r="C33">
-        <v>1.616767352711417</v>
+        <v>1.784984210082074</v>
       </c>
       <c r="D33">
-        <v>2.469581879811696</v>
+        <v>1.972510919502449</v>
       </c>
       <c r="E33">
-        <v>-1.721890424481733</v>
+        <v>-1.525511408339874</v>
       </c>
       <c r="F33">
-        <v>0.4614940315748739</v>
+        <v>0.4135197463245717</v>
       </c>
       <c r="G33">
-        <v>-0.2234410748624034</v>
+        <v>-0.1452171308856487</v>
       </c>
       <c r="H33">
-        <v>0.2075339438621861</v>
+        <v>-0.2887506797459092</v>
       </c>
       <c r="I33">
-        <v>0.409012021659737</v>
+        <v>0.2381594816468817</v>
       </c>
       <c r="J33">
-        <v>-0.2014049694608026</v>
+        <v>0.097005094808012</v>
       </c>
       <c r="K33">
-        <v>0.903848620538066</v>
+        <v>0.7406577100741492</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1411,31 +1411,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1.535353934248196</v>
+        <v>-1.367137076877539</v>
       </c>
       <c r="C34">
-        <v>1.701290521645714</v>
+        <v>1.204219561336467</v>
       </c>
       <c r="D34">
-        <v>0.05310957551827311</v>
+        <v>0.2494885916601319</v>
       </c>
       <c r="E34">
-        <v>0.6675357242148734</v>
+        <v>0.6195614389645712</v>
       </c>
       <c r="F34">
-        <v>-0.01610634840384839</v>
+        <v>0.0621175955729063</v>
       </c>
       <c r="G34">
-        <v>0.2822185531677922</v>
+        <v>-0.2140660704403031</v>
       </c>
       <c r="H34">
-        <v>0.4587010142774222</v>
+        <v>0.2878484742645668</v>
       </c>
       <c r="I34">
-        <v>-0.160591026733519</v>
+        <v>0.1378190375352956</v>
       </c>
       <c r="J34">
-        <v>0.9365146863900123</v>
+        <v>0.7733237759260956</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1443,28 +1443,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.4033665443186267</v>
+        <v>-0.0937044159906204</v>
       </c>
       <c r="C35">
-        <v>-0.490480424481722</v>
+        <v>-0.2941014083398632</v>
       </c>
       <c r="D35">
-        <v>1.810494031574878</v>
+        <v>1.762519746324576</v>
       </c>
       <c r="E35">
-        <v>0.240601647421091</v>
+        <v>0.3188255913978457</v>
       </c>
       <c r="F35">
-        <v>0.3053061514919685</v>
+        <v>-0.1909784721161268</v>
       </c>
       <c r="G35">
-        <v>0.4763230787589461</v>
+        <v>0.3054705387460908</v>
       </c>
       <c r="H35">
-        <v>-0.1590984722619979</v>
+        <v>0.1393115920068167</v>
       </c>
       <c r="I35">
-        <v>0.9385471238727974</v>
+        <v>0.7753562134088806</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1472,25 +1472,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1.23689042448172</v>
+        <v>-1.040511408339861</v>
       </c>
       <c r="C36">
-        <v>3.52149403157489</v>
+        <v>3.473519746324588</v>
       </c>
       <c r="D36">
-        <v>0.8845345507757296</v>
+        <v>0.9627584947524843</v>
       </c>
       <c r="E36">
-        <v>0.3050184823314142</v>
+        <v>-0.1912661412766812</v>
       </c>
       <c r="F36">
-        <v>0.4806483138586436</v>
+        <v>0.3097957738457883</v>
       </c>
       <c r="G36">
-        <v>-0.161395224096558</v>
+        <v>0.1370148401722565</v>
       </c>
       <c r="H36">
-        <v>0.9376893663029342</v>
+        <v>0.7744984558390173</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1498,34 +1498,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.481494031574898</v>
+        <v>1.433519746324596</v>
       </c>
       <c r="C37">
-        <v>0.6841416474210755</v>
+        <v>0.7623655913978302</v>
       </c>
       <c r="D37">
-        <v>1.478286151491969</v>
+        <v>0.9820015278838731</v>
       </c>
       <c r="E37">
-        <v>1.189093078758946</v>
+        <v>1.018240538746091</v>
       </c>
       <c r="F37">
-        <v>0.1180015277380021</v>
+        <v>0.4164115920068167</v>
       </c>
       <c r="G37">
-        <v>1.002577123872797</v>
+        <v>0.8393862134088805</v>
       </c>
       <c r="H37">
-        <v>0.1168838851254733</v>
+        <v>0.733798919738463</v>
       </c>
       <c r="I37">
-        <v>0.4024390243902407</v>
+        <v>0.3261687137008458</v>
       </c>
       <c r="J37">
-        <v>0.01916030534350868</v>
+        <v>0.21</v>
       </c>
       <c r="K37">
-        <v>0.581428571428572</v>
+        <v>0.4863220581229216</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1533,31 +1533,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1.155858352578899</v>
+        <v>-1.077634408602145</v>
       </c>
       <c r="C38">
-        <v>-0.1917138485080315</v>
+        <v>-0.6879984721161269</v>
       </c>
       <c r="D38">
-        <v>2.359093078758946</v>
+        <v>2.18824053874609</v>
       </c>
       <c r="E38">
-        <v>1.158001527738002</v>
+        <v>1.456411592006817</v>
       </c>
       <c r="F38">
-        <v>1.322577123872797</v>
+        <v>1.159386213408881</v>
       </c>
       <c r="G38">
-        <v>0.3868838851254733</v>
+        <v>1.003798919738463</v>
       </c>
       <c r="H38">
-        <v>0.4724390243902407</v>
+        <v>0.3961687137008458</v>
       </c>
       <c r="I38">
-        <v>0.0691603053435087</v>
+        <v>0.26</v>
       </c>
       <c r="J38">
-        <v>0.631428571428572</v>
+        <v>0.5363220581229216</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1565,28 +1565,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.283571699402312</v>
+        <v>-0.2127129242057834</v>
       </c>
       <c r="C39">
-        <v>1.011491247326545</v>
+        <v>0.8406387073136894</v>
       </c>
       <c r="D39">
-        <v>0.5046656737441791</v>
+        <v>0.8030757380129937</v>
       </c>
       <c r="E39">
-        <v>1.622462961580944</v>
+        <v>1.459272051117028</v>
       </c>
       <c r="F39">
-        <v>0.7476504478427889</v>
+        <v>1.364565482455779</v>
       </c>
       <c r="G39">
-        <v>0.8892661977970362</v>
+        <v>0.8129958871076413</v>
       </c>
       <c r="H39">
-        <v>0.2926969154114781</v>
+        <v>0.4835366100679694</v>
       </c>
       <c r="I39">
-        <v>0.7174778321803181</v>
+        <v>0.6223713188746678</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1594,25 +1594,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.3990930787589461</v>
+        <v>0.2282405387460907</v>
       </c>
       <c r="C40">
-        <v>0.5784851364712441</v>
+        <v>0.8768952007400587</v>
       </c>
       <c r="D40">
-        <v>1.912577123872797</v>
+        <v>1.74938621340888</v>
       </c>
       <c r="E40">
-        <v>0.8968838851254733</v>
+        <v>1.513798919738463</v>
       </c>
       <c r="F40">
-        <v>0.9921863807807818</v>
+        <v>0.9159160700913869</v>
       </c>
       <c r="G40">
-        <v>0.4267615104209647</v>
+        <v>0.617601205077456</v>
       </c>
       <c r="H40">
-        <v>0.791428571428572</v>
+        <v>0.6963220581229216</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1620,34 +1620,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.5519984722619978</v>
+        <v>-0.2535884079931833</v>
       </c>
       <c r="C41">
-        <v>0.3325771238727974</v>
+        <v>0.1693862134088806</v>
       </c>
       <c r="D41">
-        <v>-0.5431161148745267</v>
+        <v>0.07379891973846298</v>
       </c>
       <c r="E41">
-        <v>0.1524390243902407</v>
+        <v>0.07616871370084576</v>
       </c>
       <c r="F41">
-        <v>0.2891603053435087</v>
+        <v>0.48</v>
       </c>
       <c r="G41">
-        <v>0.851428571428572</v>
+        <v>0.7563220581229215</v>
       </c>
       <c r="H41">
-        <v>0.2710171111748399</v>
+        <v>0.6151022358111976</v>
       </c>
       <c r="I41">
-        <v>0.775632271600231</v>
+        <v>0.7382496413199389</v>
       </c>
       <c r="J41">
-        <v>0.3347871831659499</v>
+        <v>0.4208208668968201</v>
       </c>
       <c r="K41">
-        <v>0.6206497229122814</v>
+        <v>0.2378331735378737</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1655,31 +1655,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.2225771238727974</v>
+        <v>0.05938621340888062</v>
       </c>
       <c r="C42">
-        <v>-0.5331161148745267</v>
+        <v>0.08379891973846298</v>
       </c>
       <c r="D42">
-        <v>0.221970652806228</v>
+        <v>0.145700342116833</v>
       </c>
       <c r="E42">
-        <v>0.3609007948914617</v>
+        <v>0.551740489547953</v>
       </c>
       <c r="F42">
-        <v>0.873512040524295</v>
+        <v>0.7784055272186445</v>
       </c>
       <c r="G42">
-        <v>0.1803143147462292</v>
+        <v>0.5243994393825868</v>
       </c>
       <c r="H42">
-        <v>0.6613490023481368</v>
+        <v>0.6239663720678446</v>
       </c>
       <c r="I42">
-        <v>0.1941599749288416</v>
+        <v>0.2801936586597118</v>
       </c>
       <c r="J42">
-        <v>0.4451524432442894</v>
+        <v>0.0623358938698817</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1687,28 +1687,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.3509940722898185</v>
+        <v>0.2659209623231712</v>
       </c>
       <c r="C43">
-        <v>0.2173032901650136</v>
+        <v>0.1410329794756187</v>
       </c>
       <c r="D43">
-        <v>0.2645049946868433</v>
+        <v>0.4553446893433346</v>
       </c>
       <c r="E43">
-        <v>0.932802392929622</v>
+        <v>0.8376958796239715</v>
       </c>
       <c r="F43">
-        <v>0.2874130958257295</v>
+        <v>0.6314982204620873</v>
       </c>
       <c r="G43">
-        <v>0.7213430285250602</v>
+        <v>0.683960398244768</v>
       </c>
       <c r="H43">
-        <v>0.1829770333935032</v>
+        <v>0.2690107171243734</v>
       </c>
       <c r="I43">
-        <v>0.4312815856628233</v>
+        <v>0.04846503628841559</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1716,25 +1716,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.273086857568821</v>
+        <v>0.1968165468794261</v>
       </c>
       <c r="C44">
-        <v>-0.01083969465649132</v>
+        <v>0.18</v>
       </c>
       <c r="D44">
-        <v>0.791428571428572</v>
+        <v>0.6963220581229216</v>
       </c>
       <c r="E44">
-        <v>0.2610171111748399</v>
+        <v>0.6051022358111976</v>
       </c>
       <c r="F44">
-        <v>0.7556322716002311</v>
+        <v>0.7182496413199388</v>
       </c>
       <c r="G44">
-        <v>0.2247871831659499</v>
+        <v>0.3108208668968201</v>
       </c>
       <c r="H44">
-        <v>0.5306497229122814</v>
+        <v>0.1478331735378737</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1742,25 +1742,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.3708396946564913</v>
+        <v>-0.18</v>
       </c>
       <c r="C45">
-        <v>0.6914285714285719</v>
+        <v>0.5963220581229216</v>
       </c>
       <c r="D45">
-        <v>0.2410171111748399</v>
+        <v>0.5851022358111976</v>
       </c>
       <c r="E45">
-        <v>0.8567799661052694</v>
+        <v>0.8193973358249773</v>
       </c>
       <c r="F45">
-        <v>0.3979680775074187</v>
+        <v>0.4840017612382889</v>
       </c>
       <c r="G45">
-        <v>0.5813332769805371</v>
+        <v>0.1985167276061293</v>
       </c>
       <c r="H45">
-        <v>-0.07991706325214298</v>
+        <v>0.02551376466621769</v>
+      </c>
+      <c r="I45">
+        <v>0.535526637811788</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1768,22 +1771,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.415428571428572</v>
+        <v>0.3203220581229216</v>
       </c>
       <c r="C46">
-        <v>0.05498845598347929</v>
+        <v>0.399073580619837</v>
       </c>
       <c r="D46">
-        <v>0.6958687198406656</v>
+        <v>0.6584860895603735</v>
       </c>
       <c r="E46">
-        <v>0.3339617829755114</v>
+        <v>0.4199954667063815</v>
       </c>
       <c r="F46">
-        <v>0.6407790808091178</v>
+        <v>0.25796253143471</v>
       </c>
       <c r="G46">
-        <v>-0.01213374733938011</v>
+        <v>0.09329708057898056</v>
+      </c>
+      <c r="H46">
+        <v>0.5766911554241068</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1791,19 +1797,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.3214929292886639</v>
+        <v>0.02259219534769386</v>
       </c>
       <c r="C47">
-        <v>0.5099901328485194</v>
+        <v>0.4726075025682273</v>
       </c>
       <c r="D47">
-        <v>0.4061437322588163</v>
+        <v>0.4921774159896865</v>
       </c>
       <c r="E47">
-        <v>0.7326419872114158</v>
+        <v>0.349825437837008</v>
       </c>
       <c r="F47">
-        <v>0.03212331069211072</v>
+        <v>0.1375541386104714</v>
+      </c>
+      <c r="G47">
+        <v>0.6272238950261231</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1811,54 +1820,69 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.5538847935577611</v>
+        <v>0.516502163277469</v>
       </c>
       <c r="C48">
-        <v>0.3247871831659499</v>
+        <v>0.4108208668968201</v>
       </c>
       <c r="D48">
-        <v>0.7206497229122815</v>
+        <v>0.3378331735378737</v>
       </c>
       <c r="E48">
-        <v>0.04831977022499523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.1537505981433559</v>
+      </c>
+      <c r="F48">
+        <v>0.6666911554241067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1523883420589938</v>
+        <v>-0.06635465832812365</v>
       </c>
       <c r="C49">
-        <v>0.4106497229122814</v>
+        <v>0.02783317353787368</v>
       </c>
       <c r="D49">
-        <v>-0.09868022977500479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006750598143355879</v>
+      </c>
+      <c r="E49">
+        <v>0.6966911554241066</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.4148795034612291</v>
+        <v>0.03206295408682139</v>
       </c>
       <c r="C50">
-        <v>-0.2119161209897164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.1064852930713557</v>
+      </c>
+      <c r="D50">
+        <v>0.4271648845785767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.1722430723603913</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06681224444203063</v>
+      </c>
+      <c r="C51">
+        <v>0.4775315349050862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.32386998960715</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
@@ -1766,7 +1766,10 @@
         <v>0.02551376466621769</v>
       </c>
       <c r="I45">
-        <v>0.535526637811788</v>
+        <v>0.468739117536998</v>
+      </c>
+      <c r="J45">
+        <v>0.2150495036779461</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1792,7 +1795,10 @@
         <v>0.09329708057898056</v>
       </c>
       <c r="H46">
-        <v>0.5766911554241068</v>
+        <v>0.5099036351493167</v>
+      </c>
+      <c r="I46">
+        <v>0.24</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1815,7 +1821,10 @@
         <v>0.1375541386104714</v>
       </c>
       <c r="G47">
-        <v>0.6272238950261231</v>
+        <v>0.5604363747513331</v>
+      </c>
+      <c r="H47">
+        <v>0.3087982760018804</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1835,10 +1844,13 @@
         <v>0.1537505981433559</v>
       </c>
       <c r="F48">
-        <v>0.6666911554241067</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.5999036351493168</v>
+      </c>
+      <c r="G48">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1852,10 +1864,13 @@
         <v>0.006750598143355879</v>
       </c>
       <c r="E49">
-        <v>0.6966911554241066</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.6299036351493167</v>
+      </c>
+      <c r="F49">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1866,10 +1881,13 @@
         <v>-0.1064852930713557</v>
       </c>
       <c r="D50">
-        <v>0.4271648845785767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.3603773643037867</v>
+      </c>
+      <c r="E50">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1877,20 +1895,29 @@
         <v>-0.06681224444203063</v>
       </c>
       <c r="C51">
-        <v>0.4775315349050862</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.4107440146302961</v>
+      </c>
+      <c r="D51">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.32386998960715</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.25708246933236</v>
+      </c>
+      <c r="C52">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-08-22 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-11-25 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>0.0959495356205764</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
